--- a/biology/Botanique/Jardin_Solitude/Jardin_Solitude.xlsx
+++ b/biology/Botanique/Jardin_Solitude/Jardin_Solitude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Solitude est un espace vert du 17e arrondissement de Paris, en France.
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est formé par les pelouses nord de la place du Général-Catroux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est formé par les pelouses nord de la place du Général-Catroux.
 Ce site est desservi par la ligne 3 à la station de métro Malesherbes.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est nommé en référence à Solitude (vers 1772-1802), esclave guadeloupéenne qui se rebella contre le rétablissement de l'esclavage en 1802 par Napoléon Bonaparte et qui fut condamnée à mort. André Schwarz-Bart lui consacre, en 1972, le roman La Mulâtresse Solitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est nommé en référence à Solitude (vers 1772-1802), esclave guadeloupéenne qui se rebella contre le rétablissement de l'esclavage en 1802 par Napoléon Bonaparte et qui fut condamnée à mort. André Schwarz-Bart lui consacre, en 1972, le roman La Mulâtresse Solitude.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 26 septembre 2020, la maire de Paris Anne Hidalgo et Jacques Martial ancien directeur de Mémorial ACTe et conseiller de Paris délégué chargé des Outre-mer, inaugurent ce jardin[2].
-Conçue par l’artiste Didier Audrat, une statue de Solitude est dévoilée le 10 mai 2022, à l'occasion de la Journée nationale des mémoires de la traite et de l'esclavage et de leurs abolitions par la maire de Paris Anne Hidalgo[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 26 septembre 2020, la maire de Paris Anne Hidalgo et Jacques Martial ancien directeur de Mémorial ACTe et conseiller de Paris délégué chargé des Outre-mer, inaugurent ce jardin.
+Conçue par l’artiste Didier Audrat, une statue de Solitude est dévoilée le 10 mai 2022, à l'occasion de la Journée nationale des mémoires de la traite et de l'esclavage et de leurs abolitions par la maire de Paris Anne Hidalgo,.
 </t>
         </is>
       </c>
